--- a/medicine/Psychotrope/Puisseguin-saint-émilion/Puisseguin-saint-émilion.xlsx
+++ b/medicine/Psychotrope/Puisseguin-saint-émilion/Puisseguin-saint-émilion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Puisseguin-saint-%C3%A9milion</t>
+          <t>Puisseguin-saint-émilion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le puisseguin-saint-émilion[1] est un vin rouge français d'appellation d'origine contrôlée produit sur le territoire de la commune de Puisseguin. 753 hectares de superficie plantés en vigne ont été revendiqués en 2005 avec une production de 34 648 hl.
+Le puisseguin-saint-émilion est un vin rouge français d'appellation d'origine contrôlée produit sur le territoire de la commune de Puisseguin. 753 hectares de superficie plantés en vigne ont été revendiqués en 2005 avec une production de 34 648 hl.
 L'appellation produit exclusivement du vin rouge, et si presque tous les cépages bordelais peuvent y être utilisés (cabernet sauvignon, cabernet franc, merlot, côt, etc.), c'est le merlot qui prédomine nettement.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Puisseguin-saint-%C3%A9milion</t>
+          <t>Puisseguin-saint-émilion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'appellation est reconnue par un décret de 1936, mis à jour en décembre 2011[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation est reconnue par un décret de 1936, mis à jour en décembre 2011
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Puisseguin-saint-%C3%A9milion</t>
+          <t>Puisseguin-saint-émilion</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,49 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec le vignoble de Montagne, le vignoble de Puisseguin est dans le prolongement nord-est de Saint-Émilion sur la rive droite de la Barbanne. Avec les vignobles de Lussac-Saint-Émilion, de Saint-Georges-Saint-Émilion et de Montagne-Saint-Émilion, il forme les satellites du vignoble de Saint-Émilion.
-Le rendement de base est fixé à 45 hl/ha avec un plafond limite de 20 %. Avant tout enrichissement ou concentration, les moûts doivent contenir au minimum 187 grammes de sucre naturel par litre. Le vin doit présenter après fermentation un degré alcoolique minimum de 11 % vol[4].
-Les cépages
-Traditionnellement, les vins de Puisseguin-Saint-Émilion sont des vins d'assemblage de différents cépages, les trois principaux étant le merlot, le cabernet franc (ou bouchet) et le cabernet sauvignon.
+Le rendement de base est fixé à 45 hl/ha avec un plafond limite de 20 %. Avant tout enrichissement ou concentration, les moûts doivent contenir au minimum 187 grammes de sucre naturel par litre. Le vin doit présenter après fermentation un degré alcoolique minimum de 11 % vol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Puisseguin-saint-émilion</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Puisseguin-saint-%C3%A9milion</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les cépages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traditionnellement, les vins de Puisseguin-Saint-Émilion sont des vins d'assemblage de différents cépages, les trois principaux étant le merlot, le cabernet franc (ou bouchet) et le cabernet sauvignon.
 La répartition des cépages est la suivante :
 Le merlot, c'est le cépage le plus représenté (près de 80 % de l'encépagement). C'est un cépage précoce de deuxième époque, il apprécie le caractère frais et humide des sols à texture argileuse. Il mûrit bien et apporte au vin de la couleur, une bonne richesse alcoolique, une bonne complexité ainsi que de la souplesse et de la rondeur en bouche.
 Le cabernet franc est essentiellement planté dans le Libournais, il représente près de 15 % de l'encépagement de Saint-Emilion. De précocité moyenne, il est plus utilisé sur les sols calcaires ou à texture un peu plus chaudes (sables et graves). Il apporte au vin une finesse aromatique légèrement épicée, une fraîcheur et une structure tanique, conférant au vin une grande aptitude de vieillissement.
@@ -559,31 +610,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Puisseguin-saint-%C3%A9milion</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Puisseguin-saint-émilion</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Puisseguin-saint-%C3%A9milion</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Liste de producteurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Château Beauséjour
 Château Branda
